--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N2">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q2">
-        <v>4.291602889475333</v>
+        <v>3.354060809955556</v>
       </c>
       <c r="R2">
-        <v>38.624426005278</v>
+        <v>30.1865472896</v>
       </c>
       <c r="S2">
-        <v>1.776390565637113E-05</v>
+        <v>8.013327029857124E-06</v>
       </c>
       <c r="T2">
-        <v>1.776390565637114E-05</v>
+        <v>8.013327029857122E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N3">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O3">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P3">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q3">
-        <v>305.0342024996048</v>
+        <v>2113.048019147289</v>
       </c>
       <c r="R3">
-        <v>2745.307822496444</v>
+        <v>19017.4321723256</v>
       </c>
       <c r="S3">
-        <v>0.001262604890228284</v>
+        <v>0.005048371441853315</v>
       </c>
       <c r="T3">
-        <v>0.001262604890228285</v>
+        <v>0.005048371441853314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N4">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O4">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P4">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q4">
-        <v>36126.23320310955</v>
+        <v>98768.82313276739</v>
       </c>
       <c r="R4">
-        <v>325136.098827986</v>
+        <v>888919.4081949065</v>
       </c>
       <c r="S4">
-        <v>0.1495345713169087</v>
+        <v>0.2359727282724698</v>
       </c>
       <c r="T4">
-        <v>0.1495345713169088</v>
+        <v>0.2359727282724698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N5">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q5">
-        <v>14.46893845950089</v>
+        <v>450.8373976507556</v>
       </c>
       <c r="R5">
-        <v>130.220446135508</v>
+        <v>4057.536578856801</v>
       </c>
       <c r="S5">
-        <v>5.989017725119392E-05</v>
+        <v>0.001077114491765317</v>
       </c>
       <c r="T5">
-        <v>5.989017725119395E-05</v>
+        <v>0.001077114491765316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N6">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q6">
-        <v>3.101210790141999</v>
+        <v>1.225017136010667</v>
       </c>
       <c r="R6">
-        <v>27.910897111278</v>
+        <v>11.025154224096</v>
       </c>
       <c r="S6">
-        <v>1.283660611556201E-05</v>
+        <v>2.926739699797665E-06</v>
       </c>
       <c r="T6">
-        <v>1.283660611556202E-05</v>
+        <v>2.926739699797664E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N7">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O7">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P7">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q7">
-        <v>220.4247188093826</v>
+        <v>771.7570370178007</v>
       </c>
       <c r="R7">
-        <v>1983.822469284444</v>
+        <v>6945.813333160206</v>
       </c>
       <c r="S7">
-        <v>0.0009123872851480694</v>
+        <v>0.001843837030879334</v>
       </c>
       <c r="T7">
-        <v>0.0009123872851480698</v>
+        <v>0.001843837030879334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N8">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O8">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P8">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q8">
-        <v>26105.64562984677</v>
+        <v>36073.73500269068</v>
       </c>
       <c r="R8">
-        <v>234950.810668621</v>
+        <v>324663.6150242161</v>
       </c>
       <c r="S8">
-        <v>0.1080571147914269</v>
+        <v>0.08618526978012504</v>
       </c>
       <c r="T8">
-        <v>0.108057114791427</v>
+        <v>0.08618526978012503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N9">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q9">
-        <v>10.45558716127867</v>
+        <v>164.6611582107687</v>
       </c>
       <c r="R9">
-        <v>94.100284451508</v>
+        <v>1481.950423896918</v>
       </c>
       <c r="S9">
-        <v>4.327801725793555E-05</v>
+        <v>0.0003933988632351055</v>
       </c>
       <c r="T9">
-        <v>4.327801725793557E-05</v>
+        <v>0.0003933988632351055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N10">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q10">
-        <v>5.488101635898</v>
+        <v>2.764800184999111</v>
       </c>
       <c r="R10">
-        <v>49.392914723082</v>
+        <v>24.883201664992</v>
       </c>
       <c r="S10">
-        <v>2.271648197734035E-05</v>
+        <v>6.605499813493523E-06</v>
       </c>
       <c r="T10">
-        <v>2.271648197734036E-05</v>
+        <v>6.60549981349352E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H11">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I11">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J11">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N11">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O11">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P11">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q11">
-        <v>390.077728265204</v>
+        <v>1741.815633428496</v>
       </c>
       <c r="R11">
-        <v>3510.699554386836</v>
+        <v>15676.34070085646</v>
       </c>
       <c r="S11">
-        <v>0.001614619092681662</v>
+        <v>0.004161444615121699</v>
       </c>
       <c r="T11">
-        <v>0.001614619092681663</v>
+        <v>0.004161444615121698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N12">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O12">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P12">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q12">
-        <v>46198.22584867745</v>
+        <v>81416.55024830579</v>
       </c>
       <c r="R12">
-        <v>415784.0326380971</v>
+        <v>732748.9522347521</v>
       </c>
       <c r="S12">
-        <v>0.1912248049511314</v>
+        <v>0.1945156870280818</v>
       </c>
       <c r="T12">
-        <v>0.1912248049511315</v>
+        <v>0.1945156870280818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N13">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q13">
-        <v>18.502878032828</v>
+        <v>371.6316999171651</v>
       </c>
       <c r="R13">
-        <v>166.525902295452</v>
+        <v>3344.685299254486</v>
       </c>
       <c r="S13">
-        <v>7.658755672677851E-05</v>
+        <v>0.0008878808449920239</v>
       </c>
       <c r="T13">
-        <v>7.658755672677853E-05</v>
+        <v>0.0008878808449920236</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H14">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I14">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J14">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N14">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q14">
-        <v>1.829041375640667</v>
+        <v>0.4525991548977777</v>
       </c>
       <c r="R14">
-        <v>16.461372380766</v>
+        <v>4.07339239408</v>
       </c>
       <c r="S14">
-        <v>7.570811949577244E-06</v>
+        <v>1.081323579723921E-06</v>
       </c>
       <c r="T14">
-        <v>7.570811949577246E-06</v>
+        <v>1.08132357972392E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H15">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I15">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J15">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N15">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O15">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P15">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q15">
-        <v>130.0027499574964</v>
+        <v>285.1360788945144</v>
       </c>
       <c r="R15">
-        <v>1170.024749617468</v>
+        <v>2566.22471005063</v>
       </c>
       <c r="S15">
-        <v>0.0005381105020171384</v>
+        <v>0.0006812305374460884</v>
       </c>
       <c r="T15">
-        <v>0.0005381105020171386</v>
+        <v>0.0006812305374460883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H16">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I16">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J16">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N16">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O16">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P16">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q16">
-        <v>15396.66576247672</v>
+        <v>13327.92946014922</v>
       </c>
       <c r="R16">
-        <v>138569.9918622905</v>
+        <v>119951.365141343</v>
       </c>
       <c r="S16">
-        <v>0.06373024836432459</v>
+        <v>0.03184231397297117</v>
       </c>
       <c r="T16">
-        <v>0.06373024836432462</v>
+        <v>0.03184231397297117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N17">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q17">
-        <v>6.166527469008445</v>
+        <v>60.83629270148778</v>
       </c>
       <c r="R17">
-        <v>55.498747221076</v>
+        <v>547.52663431339</v>
       </c>
       <c r="S17">
-        <v>2.552463846445938E-05</v>
+        <v>0.0001453465325536514</v>
       </c>
       <c r="T17">
-        <v>2.552463846445939E-05</v>
+        <v>0.0001453465325536514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H18">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N18">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q18">
-        <v>7.974512551109332</v>
+        <v>3.653325203946667</v>
       </c>
       <c r="R18">
-        <v>71.77061295998399</v>
+        <v>32.87992683552</v>
       </c>
       <c r="S18">
-        <v>3.300829369857472E-05</v>
+        <v>8.728312116091908E-06</v>
       </c>
       <c r="T18">
-        <v>3.300829369857472E-05</v>
+        <v>8.728312116091907E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H19">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N19">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O19">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P19">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q19">
-        <v>566.8043243973368</v>
+        <v>2301.583669141247</v>
       </c>
       <c r="R19">
-        <v>5101.238919576032</v>
+        <v>20714.25302227122</v>
       </c>
       <c r="S19">
-        <v>0.002346130059915308</v>
+        <v>0.005498809852422347</v>
       </c>
       <c r="T19">
-        <v>0.002346130059915309</v>
+        <v>0.005498809852422347</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H20">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N20">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O20">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P20">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q20">
-        <v>67128.55488307305</v>
+        <v>107581.4218525964</v>
       </c>
       <c r="R20">
-        <v>604156.9939476575</v>
+        <v>968232.7966733673</v>
       </c>
       <c r="S20">
-        <v>0.2778601251098575</v>
+        <v>0.2570272766322611</v>
       </c>
       <c r="T20">
-        <v>0.2778601251098576</v>
+        <v>0.257027276632261</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H21">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N21">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q21">
-        <v>26.88569616482489</v>
+        <v>491.0631383994067</v>
       </c>
       <c r="R21">
-        <v>241.971265483424</v>
+        <v>4419.56824559466</v>
       </c>
       <c r="S21">
-        <v>0.0001112859186829834</v>
+        <v>0.001173219492211466</v>
       </c>
       <c r="T21">
-        <v>0.0001112859186829835</v>
+        <v>0.001173219492211466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H22">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I22">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J22">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N22">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q22">
-        <v>5.760320927341332</v>
+        <v>2.403871759427556</v>
       </c>
       <c r="R22">
-        <v>51.84288834607199</v>
+        <v>21.634845834848</v>
       </c>
       <c r="S22">
-        <v>2.38432586003365E-05</v>
+        <v>5.743190609113102E-06</v>
       </c>
       <c r="T22">
-        <v>2.384325860033651E-05</v>
+        <v>5.743190609113101E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H23">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I23">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J23">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N23">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O23">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P23">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q23">
-        <v>409.4262552862061</v>
+        <v>1514.431832740031</v>
       </c>
       <c r="R23">
-        <v>3684.836297575855</v>
+        <v>13629.88649466028</v>
       </c>
       <c r="S23">
-        <v>0.001694706979991489</v>
+        <v>0.003618192462149355</v>
       </c>
       <c r="T23">
-        <v>0.00169470697999149</v>
+        <v>0.003618192462149354</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H24">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I24">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J24">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N24">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O24">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P24">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q24">
-        <v>48489.73740236395</v>
+        <v>70788.09779954488</v>
       </c>
       <c r="R24">
-        <v>436407.6366212756</v>
+        <v>637092.8801959038</v>
       </c>
       <c r="S24">
-        <v>0.2007098845585664</v>
+        <v>0.1691228065411191</v>
       </c>
       <c r="T24">
-        <v>0.2007098845585665</v>
+        <v>0.169122806541119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H25">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I25">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J25">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N25">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q25">
-        <v>19.42065264451022</v>
+        <v>323.1173642080816</v>
       </c>
       <c r="R25">
-        <v>174.785873800592</v>
+        <v>2908.056277872734</v>
       </c>
       <c r="S25">
-        <v>8.038643142129357E-05</v>
+        <v>0.0007719732154943006</v>
       </c>
       <c r="T25">
-        <v>8.03864314212936E-05</v>
+        <v>0.0007719732154943005</v>
       </c>
     </row>
   </sheetData>
